--- a/MRI_Experiment/experimental_data/Batch_III.xlsx
+++ b/MRI_Experiment/experimental_data/Batch_III.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sand-1-W" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="73">
   <si>
     <t>batch number</t>
   </si>
@@ -233,10 +233,13 @@
     <t xml:space="preserve">water content </t>
   </si>
   <si>
-    <t>voluem</t>
-  </si>
-  <si>
     <t>vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gravel </t>
+  </si>
+  <si>
+    <t>gravel</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,8 +766,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4660909413553571</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>15.188000000000102</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -789,7 +797,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -838,12 +846,12 @@
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27914896547181728</v>
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25641359571518801</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.4092577695669507</v>
+        <f>G17*$B$13</f>
+        <v>0.37592564991839195</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -864,12 +872,12 @@
         <v>6.3220000000001164</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G29" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.2696853752952692</v>
+        <f t="shared" ref="G18:G29" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24695000553863991</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H29" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.39538328573641401</v>
+        <f t="shared" ref="H18:H29" si="1">G18*$B$13</f>
+        <v>0.36205116608785526</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -891,11 +899,11 @@
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0.26425900478119357</v>
+        <v>0.24152363502456428</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.38742773308128992</v>
+        <v>0.35409561343273116</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -920,11 +928,11 @@
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0.25409634838945305</v>
+        <v>0.23136097863282376</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.37252835460525202</v>
+        <v>0.33919623495669327</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -943,11 +951,11 @@
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0.25738959394282318</v>
+        <v>0.23465422418619386</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.37735655207870672</v>
+        <v>0.34402443243014796</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -969,11 +977,11 @@
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0.24681228799731736</v>
+        <v>0.22407691824068807</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.36184925964805653</v>
+        <v>0.32851713999949778</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -995,11 +1003,11 @@
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0.24079612714322909</v>
+        <v>0.21806075738659977</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.35302902071814096</v>
+        <v>0.31969690106958221</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1021,11 +1029,11 @@
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0.23195825362182151</v>
+        <v>0.20922288386519219</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.34007189440756097</v>
+        <v>0.30673977475900216</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1050,11 +1058,11 @@
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0.2212507147839779</v>
+        <v>0.19851534502734858</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.32437366871318773</v>
+        <v>0.29104154906462898</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1067,11 +1075,11 @@
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>0.27707871156258507</v>
+        <v>0.25434334180595575</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.40622258906431979</v>
+        <v>0.37289046941576104</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1093,11 +1101,11 @@
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0.26804923102716333</v>
+        <v>0.24531386127053403</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.39298454944619349</v>
+        <v>0.35965242979763473</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1116,11 +1124,11 @@
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>0.26782469155761524</v>
+        <v>0.24508932180098594</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.39265535416391228</v>
+        <v>0.35932323451535353</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,11 +1147,11 @@
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0.26707472972932511</v>
+        <v>0.24433935997269579</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.39155584192109383</v>
+        <v>0.35822372227253502</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,8 +1421,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4891631413728246</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>17.941000000000031</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1439,7 +1452,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1488,12 +1501,12 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27712155532336002</v>
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.2506812350507775</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.41267920586745777</v>
+        <f>G17*$B$13</f>
+        <v>0.37330525547143523</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1514,12 +1527,12 @@
         <v>6.5730000000000928</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18:G42" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.26743468028006884</v>
+        <f t="shared" ref="G18:G42" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24099436000748634</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H42" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.39825386859790429</v>
+        <f t="shared" ref="H18:H42" si="1">G18*$B$13</f>
+        <v>0.35887991820188175</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1541,11 +1554,11 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0.26331411088693935</v>
+        <v>0.23687379061435687</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.3921176685361869</v>
+        <v>0.35274371814016436</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1567,11 +1580,11 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0.25481064686749783</v>
+        <v>0.22837032659491535</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.37945462334444457</v>
+        <v>0.34008067294842204</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1593,11 +1606,11 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0.24608170104650093</v>
+        <v>0.21964138077391843</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.36645579896477559</v>
+        <v>0.32708184856875305</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1619,11 +1632,11 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0.24112847009860769</v>
+        <v>0.21468814982602522</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.35907963000646587</v>
+        <v>0.31970567961044333</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1645,11 +1658,11 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0.23389242012712438</v>
+        <v>0.20745209985454191</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.34830397109980105</v>
+        <v>0.30893002070377851</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1674,11 +1687,11 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0.2248746218021743</v>
+        <v>0.19843430152959179</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.33487499821795175</v>
+        <v>0.29550104782192921</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1691,11 +1704,11 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0.27188389308330868</v>
+        <v>0.24544357281072621</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.40487947231261318</v>
+        <v>0.36550552191659064</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1717,11 +1730,11 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0.26456236635045183</v>
+        <v>0.23812204607786933</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.39397652456346688</v>
+        <v>0.35460257416744434</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1743,11 +1756,11 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0.25346217726996045</v>
+        <v>0.22702185699737798</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.3774465321225301</v>
+        <v>0.33807258172650756</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1766,11 +1779,11 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0.25346217726996045</v>
+        <v>0.22702185699737798</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.3774465321225301</v>
+        <v>0.33807258172650756</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1783,11 +1796,11 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0.26899831551830605</v>
+        <v>0.24255799524572355</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.40058237656123885</v>
+        <v>0.36120842616521631</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1809,11 +1822,11 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>0.23626218964935378</v>
+        <v>0.20982186937677128</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.35183294452585367</v>
+        <v>0.31245899412983119</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1838,11 +1851,11 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
-        <v>0.22299560678921265</v>
+        <v>0.19655528651663015</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.33207683831856305</v>
+        <v>0.29270288792254057</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,11 +1868,11 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
-        <v>0.26820986608149461</v>
+        <v>0.24176954580891213</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.39940824672110314</v>
+        <v>0.3600342963250806</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,11 +1894,11 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" si="0"/>
-        <v>0.25481948929108805</v>
+        <v>0.22837916901850555</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.37946779115573553</v>
+        <v>0.340093840759713</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1910,11 +1923,11 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" si="0"/>
-        <v>0.24102530849005305</v>
+        <v>0.21458498821747055</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.35892600554140153</v>
+        <v>0.31955205514537899</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1927,11 +1940,11 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" si="0"/>
-        <v>0.26710161565816365</v>
+        <v>0.24066129538558118</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.39775788103926785</v>
+        <v>0.35838393064324531</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1953,11 +1966,11 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="0"/>
-        <v>0.2524895106750159</v>
+        <v>0.2260491904024334</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.37599807288049403</v>
+        <v>0.33662412248447149</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1976,11 +1989,11 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" si="0"/>
-        <v>0.24956856341565145</v>
+        <v>0.22312824314306895</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.37164830588395448</v>
+        <v>0.33227435548793194</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1993,11 +2006,11 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
-        <v>0.26773679641940795</v>
+        <v>0.24129647614682548</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.39870376881702196</v>
+        <v>0.35932981842099948</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2022,11 +2035,11 @@
       </c>
       <c r="G39" s="5">
         <f t="shared" si="0"/>
-        <v>0.20130808919647419</v>
+        <v>0.17486776892389169</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.29978058649158229</v>
+        <v>0.26040663609555975</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2039,11 +2052,11 @@
       </c>
       <c r="G40" s="5">
         <f t="shared" si="0"/>
-        <v>0.26739488937391226</v>
+        <v>0.24095456910132979</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.39819461344709411</v>
+        <v>0.35882066305107158</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2068,11 +2081,11 @@
       </c>
       <c r="G41" s="5">
         <f t="shared" si="0"/>
-        <v>0.22377226632790345</v>
+        <v>0.19733194605532098</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.33323341107697707</v>
+        <v>0.29385946068095453</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2091,11 +2104,11 @@
       </c>
       <c r="G42" s="5">
         <f t="shared" si="0"/>
-        <v>0.22639993987151966</v>
+        <v>0.19995961959893715</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.3371464456656908</v>
+        <v>0.29777249526966826</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2206,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,8 +2384,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4833394329809166</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>16.678000000000111</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2397,7 +2415,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2446,12 +2464,12 @@
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28137877760307534</v>
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25601785817470707</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.4173802364226093</v>
+        <f>G17*$B$13</f>
+        <v>0.37976138457785874</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2472,12 +2490,12 @@
         <v>6.7229999999999563</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:G29" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27115564165650397</v>
+        <f t="shared" ref="G18:G29" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.2457947222281357</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H29" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.40221585574433522</v>
+        <f t="shared" ref="H18:H29" si="1">G18*$B$13</f>
+        <v>0.36459700389958472</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2499,11 +2517,11 @@
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0.26656184518252002</v>
+        <v>0.24120092575415172</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.39540169628738614</v>
+        <v>0.35778284444263558</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2528,11 +2546,11 @@
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0.25649685383485443</v>
+        <v>0.23113593440648617</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.38047189772878204</v>
+        <v>0.34285304588403154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2551,11 +2569,11 @@
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0.25939363711288782</v>
+        <v>0.23403271768451953</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.38476881059388868</v>
+        <v>0.34714995874913812</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2577,11 +2595,11 @@
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0.24779433903160766</v>
+        <v>0.2224334196032394</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.36756311435502598</v>
+        <v>0.32994426251027542</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2603,11 +2621,11 @@
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0.23928646373470636</v>
+        <v>0.21392554430633809</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.35494304743624799</v>
+        <v>0.31732419559149749</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2629,11 +2647,11 @@
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0.22645394190618973</v>
+        <v>0.20109302247782143</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.33590806178342092</v>
+        <v>0.29828920993867036</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2658,11 +2676,11 @@
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0.20877367987275436</v>
+        <v>0.18341276044438609</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.30968223192379091</v>
+        <v>0.27206338007904035</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,11 +2693,11 @@
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>0.24472420494323524</v>
+        <v>0.21936328551486697</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.36300906339720423</v>
+        <v>0.32539021155245368</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2701,11 +2719,11 @@
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0.23462728055155957</v>
+        <v>0.2092663611231913</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.34803189729520484</v>
+        <v>0.31041304545045434</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2724,11 +2742,11 @@
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>0.23432011508060802</v>
+        <v>0.20895919565223972</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.34757626663969221</v>
+        <v>0.30995741479494171</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,11 +2765,11 @@
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0.23037258259253726</v>
+        <v>0.20501166316416899</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.34172073603716363</v>
+        <v>0.30410188419241313</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2862,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,8 +3045,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4471056649853125</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>16.01299999999992</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3053,7 +3076,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3101,13 +3124,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28756409924079651</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.2631473013133197</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.41613563705775519</v>
+        <f>G17*$B$13</f>
+        <v>0.38080195045610188</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3127,13 +3150,13 @@
         <f>$D$17-D18</f>
         <v>8.6329999999998108</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G33" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27440040620964035</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G33" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24998360828216351</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H33" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.3970863823002414</v>
+        <f t="shared" ref="H18:H33" si="1">G18*$B$13</f>
+        <v>0.36175269569858809</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3153,13 +3176,13 @@
         <f t="shared" ref="F19:F33" si="2">$D$17-D19</f>
         <v>11.771999999999935</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26961402460130007</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24519722667382324</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.39015998236003069</v>
+        <v>0.35482629575837737</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3179,13 +3202,13 @@
         <f t="shared" si="2"/>
         <v>18.615000000000009</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25917974319133774</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23476294526386091</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.37506047462162329</v>
+        <v>0.33972678801996997</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3205,13 +3228,13 @@
         <f t="shared" si="2"/>
         <v>25.75</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24830021698059973</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2238834190531229</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.35931665060970808</v>
+        <v>0.32398296400805476</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3231,13 +3254,13 @@
         <f t="shared" si="2"/>
         <v>29.742999999999938</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24221164681108659</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21779484888360975</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.35050584622574504</v>
+        <v>0.31517215962409173</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3257,13 +3280,13 @@
         <f t="shared" si="2"/>
         <v>34.736999999999853</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23459674086905088</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21017994294157405</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.33948627269869486</v>
+        <v>0.30415258609704154</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3286,13 +3309,13 @@
         <f t="shared" si="2"/>
         <v>40.550999999999931</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22573148993853487</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20131469201105803</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.32665731785562885</v>
+        <v>0.29132363125397548</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3303,13 +3326,13 @@
         <f t="shared" si="2"/>
         <v>17.593999999999824</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26073657518309185</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23631977725561501</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.37731337501632101</v>
+        <v>0.34197968841466769</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3329,13 +3352,13 @@
         <f t="shared" si="2"/>
         <v>22.822999999999865</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2527633386650891</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22834654073761226</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.36577525928285148</v>
+        <v>0.33044157268119811</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3355,13 +3378,13 @@
         <f t="shared" si="2"/>
         <v>33.015999999999849</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23722094053389742</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21280414260642061</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.34328376689974688</v>
+        <v>0.30795008029809356</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3378,13 +3401,13 @@
         <f t="shared" si="2"/>
         <v>33.015999999999849</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23722094053389742</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21280414260642061</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.34328376689974688</v>
+        <v>0.30795008029809356</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3395,13 +3418,13 @@
         <f t="shared" si="2"/>
         <v>26.319999999999936</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24743107473251003</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22301427680503319</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.35805890993881945</v>
+        <v>0.32272522333716608</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3421,13 +3444,13 @@
         <f t="shared" si="2"/>
         <v>54.454999999999927</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20453051832899016</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18011372040151336</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.29597727173626392</v>
+        <v>0.26064358513461061</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3450,13 +3473,13 @@
         <f t="shared" si="2"/>
         <v>66.857999999999947</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18561828797274854</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16120149004527173</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.26860927605023949</v>
+        <v>0.23327558944858617</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3467,13 +3490,13 @@
         <f t="shared" si="2"/>
         <v>46.594999999999914</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21651553248685995</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19209873455938314</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.31332085361904649</v>
+        <v>0.27798716701739318</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3496,13 +3519,13 @@
         <f t="shared" si="2"/>
         <v>56.480999999999881</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20144125132086757</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17702445339339073</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.29150677594815749</v>
+        <v>0.25617308934650418</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3615,7 +3638,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,8 +3802,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3867432057603168</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>12.865000000000009</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3805,7 +3833,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3853,13 +3881,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28203181303407793</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26133628899413142</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.39110570053327148</v>
+        <f>G17*$B$13</f>
+        <v>0.3624063231812264</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3879,13 +3907,13 @@
         <f>$D$17-D18</f>
         <v>8.6380000000000337</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G29" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.26813613198805708</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G29" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.2474406079481106</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H29" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.37183595925328966</v>
+        <f t="shared" ref="H18:H29" si="1">G18*$B$13</f>
+        <v>0.34313658190124463</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3905,13 +3933,13 @@
         <f t="shared" ref="F19:F29" si="2">$D$17-D19</f>
         <v>12.079999999999927</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26259909399773496</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2419035699577885</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.36415750944017378</v>
+        <v>0.33545813208812869</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3931,13 +3959,13 @@
         <f t="shared" si="2"/>
         <v>19.879999999999995</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25005147740142064</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22935595336147419</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.34675718737674949</v>
+        <v>0.31805781002470446</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3960,13 +3988,13 @@
         <f t="shared" si="2"/>
         <v>29.449999999999932</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23465651703901985</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21396099299907337</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.32540833069124081</v>
+        <v>0.29670895333919572</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3984,13 +4012,13 @@
         <f t="shared" si="2"/>
         <v>27.394999999999982</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23796233141151024</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21726680737156379</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.32999264631179664</v>
+        <v>0.30129326895975161</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4010,13 +4038,13 @@
         <f t="shared" si="2"/>
         <v>32.778999999999996</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22930125862246462</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20860573458251813</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.31798196246699206</v>
+        <v>0.28928258511494698</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4036,13 +4064,13 @@
         <f t="shared" si="2"/>
         <v>40.305999999999926</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2171928086070215</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19649728456707505</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.30119065167578796</v>
+        <v>0.27249127432374287</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4065,13 +4093,13 @@
         <f t="shared" si="2"/>
         <v>49.850000000000023</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20183967363327485</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18114414959332836</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.27989979606382365</v>
+        <v>0.25120041871177856</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4082,13 +4110,13 @@
         <f t="shared" si="2"/>
         <v>2.0339999999999918</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27875978070626983</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25806425666632338</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.38656823193365553</v>
+        <v>0.3578688545816105</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4108,13 +4136,13 @@
         <f t="shared" si="2"/>
         <v>8.7959999999999354</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26788196231854211</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24718643827859565</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.37148349119097951</v>
+        <v>0.34278411383893442</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4131,13 +4159,13 @@
         <f t="shared" si="2"/>
         <v>11.037000000000035</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26427693555029325</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24358141151034676</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.36648424481352626</v>
+        <v>0.33778486746148123</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4154,13 +4182,13 @@
         <f t="shared" si="2"/>
         <v>13.645999999999958</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26007991866570568</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23938439462575922</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.36066406016436314</v>
+        <v>0.33196468281231811</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4271,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,8 +4464,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3555760959500585</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>20.141000000000076</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -4462,7 +4495,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4510,13 +4543,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.30936156552301597</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.27603330674706528</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.41936314322868817</v>
+        <f>G17*$B$13</f>
+        <v>0.37418415231237168</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4536,13 +4569,13 @@
         <f>$D$17-D18</f>
         <v>8.1449999999999818</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G43" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.29588365143085982</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G43" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26255539265490913</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H43" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.40109280506209288</v>
+        <f t="shared" ref="H18:H43" si="1">G18*$B$13</f>
+        <v>0.35591381414577639</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4562,13 +4595,13 @@
         <f t="shared" ref="F19:F43" si="2">$D$17-D19</f>
         <v>11.219000000000051</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.29079695923696308</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25746870046101239</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.3941974067165907</v>
+        <v>0.34901841580027421</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4588,13 +4621,13 @@
         <f t="shared" si="2"/>
         <v>17.714000000000055</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28004937764966359</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2467211188737129</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.3796282420275745</v>
+        <v>0.33444925111125801</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4614,13 +4647,13 @@
         <f t="shared" si="2"/>
         <v>24.821000000000026</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26828909091510822</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23496083213915753</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.36368627844869267</v>
+        <v>0.31850728753237617</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4640,13 +4673,13 @@
         <f t="shared" si="2"/>
         <v>28.985000000000014</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26139872452103358</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22807046574508288</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.35434586247254746</v>
+        <v>0.30916687155623102</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4666,13 +4699,13 @@
         <f t="shared" si="2"/>
         <v>34.673999999999978</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25198486899368233</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21865661021773161</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.3415846649489428</v>
+        <v>0.2964056740326263</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4695,13 +4728,13 @@
         <f t="shared" si="2"/>
         <v>42.706000000000017</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23869394130943444</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20536568253348375</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.32356780108717553</v>
+        <v>0.27838881017085904</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4712,13 +4745,13 @@
         <f t="shared" si="2"/>
         <v>-0.67999999999994998</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.31048679346441138</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27715853468846069</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.42088847532853885</v>
+        <v>0.37570948441222241</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4738,13 +4771,13 @@
         <f t="shared" si="2"/>
         <v>5.3110000000000355</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30057320435132268</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26724494557537198</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.40744985090176511</v>
+        <v>0.36227085998544861</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4764,13 +4797,13 @@
         <f t="shared" si="2"/>
         <v>16.729000000000042</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28167930341771441</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24835104464176375</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.38183773043691727</v>
+        <v>0.33665873952060077</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -4787,13 +4820,13 @@
         <f t="shared" si="2"/>
         <v>16.729000000000042</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28167930341771441</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24835104464176375</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.38183773043691727</v>
+        <v>0.33665873952060077</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4804,13 +4837,13 @@
         <f t="shared" si="2"/>
         <v>-0.71799999999996089</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.31054967384937171</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27722141507342102</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.42097371447529525</v>
+        <v>0.37579472355897875</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4830,13 +4863,13 @@
         <f t="shared" si="2"/>
         <v>31.213000000000079</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25771194826599064</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22438368949003992</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.349348156710095</v>
+        <v>0.30416916579377851</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4859,13 +4892,13 @@
         <f t="shared" si="2"/>
         <v>44.34699999999998</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2359785015273316</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20265024275138091</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.31988681582856504</v>
+        <v>0.27470782491224854</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4876,13 +4909,13 @@
         <f t="shared" si="2"/>
         <v>0.58100000000001728</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30840015753191186</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27507189875596116</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.41805988153749207</v>
+        <v>0.37288089062117558</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4902,13 +4935,13 @@
         <f t="shared" si="2"/>
         <v>14.671000000000049</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28508477268740839</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2517565139114577</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.38645410317440687</v>
+        <v>0.34127511225809043</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4931,13 +4964,13 @@
         <f t="shared" si="2"/>
         <v>28.516000000000076</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26217480085120182</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22884654207525112</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.3553978929943562</v>
+        <v>0.3102189020780397</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4948,13 +4981,13 @@
         <f t="shared" si="2"/>
         <v>1.1490000000000009</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30746026125145215</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27413200247550146</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.41678578060702848</v>
+        <v>0.37160678969071204</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4974,13 +5007,13 @@
         <f t="shared" si="2"/>
         <v>19.851999999999975</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27651152862215855</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24318326984620783</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.37483241845480847</v>
+        <v>0.32965342753849197</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4997,13 +5030,13 @@
         <f t="shared" si="2"/>
         <v>23.778999999999996</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27001333726059962</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2366850784846489</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.36602362557817003</v>
+        <v>0.32084463466185353</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5014,13 +5047,13 @@
         <f t="shared" si="2"/>
         <v>1.1589999999999918</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30744371378172575</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27411545500577505</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.41676334925261893</v>
+        <v>0.37158435833630243</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5043,13 +5076,13 @@
         <f t="shared" si="2"/>
         <v>74.86099999999999</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18548555240418199</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1521572936282313</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.25143978098320097</v>
+        <v>0.2062607900668845</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5060,13 +5093,13 @@
         <f t="shared" si="2"/>
         <v>1.3590000000000373</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30711276438719759</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2737845056112469</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.41631472216442744</v>
+        <v>0.37113573124811094</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5086,13 +5119,13 @@
         <f t="shared" si="2"/>
         <v>50.153999999999996</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2263693858572087</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19304112708125798</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.30686092832292733</v>
+        <v>0.26168193740661078</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5115,13 +5148,13 @@
         <f t="shared" si="2"/>
         <v>79.541000000000054</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17774133657222477</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14441307779627408</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.24094190711952176</v>
+        <v>0.19576291620320529</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5138,13 +5171,13 @@
         <f t="shared" si="2"/>
         <v>77.902000000000044</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18045346686038241</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14712520808443172</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>0.24461840610725041</v>
+        <v>0.19943941519093392</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5249,8 +5282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5414,8 +5447,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3439422446588836</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>13.921999999999912</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5440,7 +5478,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5488,13 +5526,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28993409581227642</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26707614609910918</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.38965467952909455</v>
+        <f>G17*$B$13</f>
+        <v>0.3589349152832807</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5514,13 +5552,13 @@
         <f>$D$17-D18</f>
         <v>10.092999999999961</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G28" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27336282110641535</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G28" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25050487139324812</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H28" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.36738384340404068</v>
+        <f t="shared" ref="H18:H28" si="1">G18*$B$13</f>
+        <v>0.33666407915822683</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5543,13 +5581,13 @@
         <f t="shared" ref="F19:F28" si="2">$D$17-D19</f>
         <v>13.29099999999994</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26811215861663595</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24525420890346872</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.36032725627158035</v>
+        <v>0.3296074920257665</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5569,13 +5607,13 @@
         <f t="shared" si="2"/>
         <v>18.182999999999993</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2600801883539714</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23722223864080416</v>
       </c>
       <c r="H20" s="7">
-        <f>(D20-$B$7)/$D$11</f>
-        <v>0.34953275212774154</v>
+        <f t="shared" si="1"/>
+        <v>0.31881298788192769</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5595,13 +5633,13 @@
         <f t="shared" si="2"/>
         <v>27.352999999999952</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24502434875694915</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22216639904378191</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.32929857326449535</v>
+        <v>0.2985788090186815</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5621,13 +5659,13 @@
         <f t="shared" si="2"/>
         <v>32.539999999999964</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23650803032840442</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21365008061523719</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.31785313315940716</v>
+        <v>0.28713336891359331</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5647,13 +5685,13 @@
         <f t="shared" si="2"/>
         <v>39.779999999999973</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22462097703697131</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20176302732380408</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.30187762007653873</v>
+        <v>0.27115785583072494</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5676,13 +5714,13 @@
         <f t="shared" si="2"/>
         <v>49.065999999999917</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20937468188997582</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18651673217680861</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.2813874799539538</v>
+        <v>0.25066771570814</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5693,13 +5731,13 @@
         <f t="shared" si="2"/>
         <v>29.132999999999925</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24210184117977362</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21924389146660642</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.3253708918711935</v>
+        <v>0.29465112762537965</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5719,13 +5757,13 @@
         <f t="shared" si="2"/>
         <v>35.892999999999915</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23100287981926429</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20814493010609705</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.31045452882696833</v>
+        <v>0.27973476458115448</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5748,13 +5786,13 @@
         <f t="shared" si="2"/>
         <v>50.036999999999921</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20778043758804468</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18492248787487744</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.27924490768828181</v>
+        <v>0.24852514344246798</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5771,13 +5809,13 @@
         <f t="shared" si="2"/>
         <v>50.447000000000003</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20710727573038051</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18424932601721328</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.2783402170302739</v>
+        <v>0.24762045278446004</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5882,8 +5920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6048,8 +6086,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3766884867203464</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>17.183999999999969</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6122,13 +6165,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.29108864752482339</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26308954693727243</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40073838966242137</v>
+        <f>G17*$B$13</f>
+        <v>0.36219235024501512</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6148,13 +6191,13 @@
         <f>$D$17-D18</f>
         <v>8.81899999999996</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G37" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27671923015508343</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G37" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24872012956753253</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H37" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.38095617820862104</v>
+        <f t="shared" ref="H18:H37" si="1">G18*$B$13</f>
+        <v>0.34241013879121485</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6174,13 +6217,13 @@
         <f t="shared" ref="F19:F37" si="2">$D$17-D19</f>
         <v>11.840000000000032</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27179690224103586</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24379780165348497</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.37417966604148961</v>
+        <v>0.33563362662408336</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6200,13 +6243,13 @@
         <f t="shared" si="2"/>
         <v>18.044999999999959</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26168665904121324</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23368755845366238</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.36026101063035115</v>
+        <v>0.32171497121294496</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6226,13 +6269,13 @@
         <f t="shared" si="2"/>
         <v>24.836999999999989</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25061997542909464</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22262087484154372</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.34502563471537068</v>
+        <v>0.30647959529796448</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6252,13 +6295,13 @@
         <f t="shared" si="2"/>
         <v>28.807000000000016</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24415137502566248</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21615227443811155</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.33612038701477104</v>
+        <v>0.29757434759736479</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6278,13 +6321,13 @@
         <f t="shared" si="2"/>
         <v>34.080000000000041</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23555970501878648</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20756060443123558</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.32429233383460432</v>
+        <v>0.28574629441719812</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6307,13 +6350,13 @@
         <f t="shared" si="2"/>
         <v>42.033000000000015</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22260132239699923</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19460222180944833</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.30645267767267281</v>
+        <v>0.26790663825526662</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6324,13 +6367,13 @@
         <f t="shared" si="2"/>
         <v>18.981999999999971</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26015993899637296</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23216083840882207</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.35815919272217434</v>
+        <v>0.31961315330476814</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6350,13 +6393,13 @@
         <f t="shared" si="2"/>
         <v>24.119000000000028</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2517898633609999</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.223790762773449</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.34663620596197775</v>
+        <v>0.30809016654457155</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6376,13 +6419,13 @@
         <f t="shared" si="2"/>
         <v>35.559999999999945</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23314823685831321</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20514913627076231</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.32097249338198808</v>
+        <v>0.28242645396458188</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6399,13 +6442,13 @@
         <f t="shared" si="2"/>
         <v>38.077999999999975</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22904548224475094</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20104638165720004</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.3153242783416581</v>
+        <v>0.27677823892425191</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -6416,13 +6459,13 @@
         <f t="shared" si="2"/>
         <v>27.256999999999948</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2466768991126449</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21867779852509397</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.33959724694825466</v>
+        <v>0.30105120753084841</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6442,13 +6485,13 @@
         <f t="shared" si="2"/>
         <v>62.280999999999949</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1896098309691169</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16161073038156601</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.26103367126417421</v>
+        <v>0.22248763184676801</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6471,13 +6514,13 @@
         <f t="shared" si="2"/>
         <v>77.739000000000033</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16442302365519901</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13642392306764811</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.22635928361785965</v>
+        <v>0.18781324420045342</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -6488,13 +6531,13 @@
         <f t="shared" si="2"/>
         <v>52.808999999999969</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20504322719614682</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17704412660859592</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.28228065016091952</v>
+        <v>0.24373461074351332</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -6514,13 +6557,13 @@
         <f t="shared" si="2"/>
         <v>67.609000000000037</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18092854559141242</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15292944500386152</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.24908224563475476</v>
+        <v>0.21053620621734856</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -6543,13 +6586,13 @@
         <f t="shared" si="2"/>
         <v>81.663999999999987</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15802774491880842</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13002864433125749</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.21755497701210325</v>
+        <v>0.17900893759469702</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -6560,13 +6603,13 @@
         <f t="shared" si="2"/>
         <v>67.575000000000045</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18098394418428815</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15298484359673725</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.24915851223974728</v>
+        <v>0.21061247282234108</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6589,13 +6632,13 @@
         <f t="shared" si="2"/>
         <v>86.07000000000005</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15084873903026375</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12284963844271285</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.20767172225924627</v>
+        <v>0.16912568284184004</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -6612,13 +6655,13 @@
         <f t="shared" si="2"/>
         <v>84.644000000000005</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15317222119028756</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12517312060273664</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.21087043339805114</v>
+        <v>0.17232439398064492</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
